--- a/class_MICRO/method_groupings.xlsx
+++ b/class_MICRO/method_groupings.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Documents\Equivalence Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\project\LOINC-equivalence-classes\class_MICRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15340" windowHeight="3320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -330,7 +330,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="747">
   <si>
     <t>LP173452-6</t>
   </si>
@@ -905,9 +905,6 @@
     <t>ALLERGY,CHEM,COAG,DRUG/TOX,HEM/BC,HLA,MICRO,PANEL.MICRO,PATH,SERO</t>
   </si>
   <si>
-    <t xml:space="preserve">IA   </t>
-  </si>
-  <si>
     <t>with  some exceptions ---</t>
   </si>
   <si>
@@ -918,9 +915,6 @@
   </si>
   <si>
     <t>Counterimmunoelectrophoresis (CIE)</t>
-  </si>
-  <si>
-    <t>IA*</t>
   </si>
   <si>
     <t>LP6238-2</t>
@@ -2780,6 +2774,9 @@
   </si>
   <si>
     <t>Blood parasite thin smear</t>
+  </si>
+  <si>
+    <t>IA_EIA_IF_RIA_null</t>
   </si>
 </sst>
 </file>
@@ -3218,48 +3215,48 @@
   </sheetPr>
   <dimension ref="A1:N163"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="22.25" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="22.35" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.90625" style="1"/>
-    <col min="4" max="4" width="33.26953125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.90625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.36328125" style="8" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="5.08984375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.453125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.453125" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="34.1796875" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="3" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="33.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="8" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="34.140625" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>184</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>186</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>80</v>
       </c>
@@ -3279,7 +3276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>83</v>
       </c>
@@ -3302,7 +3299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>84</v>
       </c>
@@ -3325,7 +3322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>74</v>
       </c>
@@ -3348,7 +3345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>11</v>
       </c>
@@ -3374,7 +3371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>12</v>
       </c>
@@ -3400,7 +3397,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>13</v>
       </c>
@@ -3426,7 +3423,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>14</v>
       </c>
@@ -3452,7 +3449,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>15</v>
       </c>
@@ -3478,7 +3475,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>16</v>
       </c>
@@ -3504,7 +3501,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>17</v>
       </c>
@@ -3530,7 +3527,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>18</v>
       </c>
@@ -3556,7 +3553,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>19</v>
       </c>
@@ -3582,7 +3579,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>20</v>
       </c>
@@ -3608,7 +3605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>21</v>
       </c>
@@ -3634,7 +3631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>22</v>
       </c>
@@ -3660,7 +3657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>70</v>
       </c>
@@ -3686,7 +3683,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>71</v>
       </c>
@@ -3712,7 +3709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>93</v>
       </c>
@@ -3738,7 +3735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>169</v>
       </c>
@@ -3764,7 +3761,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>25</v>
       </c>
@@ -3790,7 +3787,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>26</v>
       </c>
@@ -3816,7 +3813,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>9</v>
       </c>
@@ -3839,10 +3836,10 @@
         <v>15</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>10</v>
       </c>
@@ -3865,10 +3862,10 @@
         <v>15</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>37</v>
       </c>
@@ -3891,13 +3888,13 @@
         <v>15</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>87</v>
       </c>
@@ -3920,13 +3917,13 @@
         <v>15</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3952,7 +3949,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>32</v>
       </c>
@@ -3978,7 +3975,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45</v>
       </c>
@@ -4004,7 +4001,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>46</v>
       </c>
@@ -4030,7 +4027,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>47</v>
       </c>
@@ -4056,7 +4053,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>48</v>
       </c>
@@ -4085,7 +4082,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>89</v>
       </c>
@@ -4111,7 +4108,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>158</v>
       </c>
@@ -4134,15 +4131,15 @@
         <v>15</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>135</v>
@@ -4163,13 +4160,13 @@
         <v>15</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>134</v>
       </c>
@@ -4192,13 +4189,13 @@
         <v>115</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>108</v>
       </c>
@@ -4221,10 +4218,10 @@
         <v>3</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>109</v>
       </c>
@@ -4247,10 +4244,10 @@
         <v>15</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>110</v>
       </c>
@@ -4273,10 +4270,10 @@
         <v>15</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>57</v>
       </c>
@@ -4302,7 +4299,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>85</v>
       </c>
@@ -4328,7 +4325,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>128</v>
       </c>
@@ -4354,7 +4351,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>131</v>
       </c>
@@ -4380,7 +4377,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>60</v>
       </c>
@@ -4406,7 +4403,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>62</v>
       </c>
@@ -4432,7 +4429,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>164</v>
       </c>
@@ -4455,7 +4452,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>120</v>
       </c>
@@ -4478,13 +4475,13 @@
         <v>15</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="K48" s="8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>81</v>
       </c>
@@ -4507,2490 +4504,2493 @@
         <v>190</v>
       </c>
       <c r="I49" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="K49" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="K49" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>38</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="F50" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>80</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="22.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="22.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>54</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="G51" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I51" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>55</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1" t="s">
+      <c r="F52" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G52" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>204</v>
-      </c>
       <c r="I52" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>56</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="G53" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>58</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>76</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="F55" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G55" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>214</v>
-      </c>
       <c r="I55" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>77</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56" s="1" t="s">
+      <c r="F56" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G56" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>218</v>
-      </c>
       <c r="I56" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>157</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="G57" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>162</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" s="1" t="s">
+      <c r="F58" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G58" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>225</v>
-      </c>
       <c r="I58" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>163</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="F59" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G59" s="8" t="s">
         <v>80</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>78</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" s="1" t="s">
+      <c r="F60" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G60" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>232</v>
-      </c>
       <c r="I60" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>79</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>115</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>111</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="G62" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>239</v>
-      </c>
       <c r="I62" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>112</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="G63" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>244</v>
-      </c>
       <c r="I63" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>113</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D64" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="G64" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>249</v>
-      </c>
       <c r="I64" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>24</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G65" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>115</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D66" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="G66" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>257</v>
-      </c>
       <c r="I66" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>156</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D67" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="G67" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>262</v>
-      </c>
       <c r="I67" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>168</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D68" s="1" t="s">
+      <c r="G68" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>266</v>
-      </c>
       <c r="I68" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>135</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D69" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="G69" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>136</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D70" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="G70" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>137</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D71" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="G71" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>138</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D72" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="G72" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>139</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="G73" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>140</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D74" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="G74" s="8" t="s">
         <v>115</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>141</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D75" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="G75" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>295</v>
-      </c>
       <c r="I75" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>142</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D76" s="1" t="s">
+      <c r="F76" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="G76" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>143</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D77" s="1" t="s">
+      <c r="F77" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="G77" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>144</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D78" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="G78" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>145</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D79" s="1" t="s">
+      <c r="F79" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="G79" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>146</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D80" s="1" t="s">
+      <c r="F80" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="G80" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>147</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D81" s="1" t="s">
+      <c r="F81" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>319</v>
-      </c>
       <c r="G81" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>148</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D82" s="1" t="s">
+      <c r="F82" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="G82" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>149</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D83" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="G83" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>150</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D84" s="1" t="s">
+      <c r="F84" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="G84" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>151</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="F85" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>152</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D86" s="1" t="s">
+      <c r="F86" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="G86" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>153</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="F87" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G87" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>154</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D88" s="1" t="s">
+      <c r="F88" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="G88" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>155</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D89" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="G89" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>59</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D90" s="1" t="s">
+      <c r="G90" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I90" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="F90" s="1" t="s">
+      <c r="L90" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="G90" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:12" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>92</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="G91" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>52</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="G92" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>181</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G93" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>165</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G94" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>126</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D95" s="1" t="s">
+      <c r="F95" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>368</v>
-      </c>
       <c r="G95" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>183</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D96" s="1" t="s">
+      <c r="F96" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>372</v>
-      </c>
       <c r="G96" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>170</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D97" s="1" t="s">
+      <c r="G97" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I97" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="E97" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="F97" s="1" t="s">
+    </row>
+    <row r="98" spans="1:14" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="G97" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I97" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="1" t="s">
+      <c r="C98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="E98" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D98" s="1" t="s">
+      <c r="G98" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I98" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="F98" s="1" t="s">
+      <c r="K98" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="G98" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I98" s="1" t="s">
+      <c r="L98" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="K98" s="8" t="s">
+    </row>
+    <row r="99" spans="1:14" ht="22.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="L98" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" ht="22.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D99" s="2" t="s">
+      <c r="E99" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="K99" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="L99" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="K99" s="8" t="s">
+    </row>
+    <row r="100" spans="1:14" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="L99" s="1" t="s">
+      <c r="C100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B100" s="1" t="s">
+      <c r="E100" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D100" s="1" t="s">
+      <c r="G100" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="G100" s="8" t="s">
-        <v>392</v>
-      </c>
       <c r="I100" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J100" s="8"/>
       <c r="K100" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B101" s="1" t="s">
+      <c r="E101" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D101" s="1" t="s">
+      <c r="G101" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F101" s="1" t="s">
+      <c r="I101" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="G101" s="8" t="s">
+      <c r="K101" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="I101" s="1" t="s">
+      <c r="L101" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="K101" s="8" t="s">
+    </row>
+    <row r="102" spans="1:14" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="L101" s="1" t="s">
+      <c r="C102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B102" s="1" t="s">
+      <c r="E102" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D102" s="1" t="s">
+      <c r="G102" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="K102" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="F102" s="1" t="s">
+    </row>
+    <row r="103" spans="1:14" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="G102" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="K102" s="11" t="s">
+      <c r="C103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B103" s="1" t="s">
+      <c r="E103" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D103" s="1" t="s">
+      <c r="G103" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="K103" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="F103" s="1" t="s">
+    </row>
+    <row r="104" spans="1:14" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="G103" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="K103" s="8" t="s">
+      <c r="C104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B104" s="1" t="s">
+      <c r="E104" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D104" s="1" t="s">
+      <c r="G104" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="K104" s="8" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="F104" s="1" t="s">
+      <c r="C105" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="G104" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="K104" s="8" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B105" s="1" t="s">
+      <c r="E105" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D105" s="1" t="s">
+      <c r="G105" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="K105" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="F105" s="1" t="s">
+    </row>
+    <row r="106" spans="1:14" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="G105" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="K105" s="8" t="s">
+      <c r="C106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B106" s="1" t="s">
+      <c r="E106" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D106" s="1" t="s">
+      <c r="G106" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="K106" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="F106" s="1" t="s">
+    </row>
+    <row r="107" spans="1:14" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="G106" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="K106" s="8" t="s">
+      <c r="C107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B107" s="1" t="s">
+      <c r="E107" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D107" s="1" t="s">
+      <c r="G107" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="I107" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="K107" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="I108" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="G107" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="K107" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="L107" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D108" s="1" t="s">
+      <c r="K108" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="F108" s="1" t="s">
+      <c r="L108" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="G108" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="K108" s="8" t="s">
+    </row>
+    <row r="109" spans="1:14" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="L108" s="1" t="s">
+      <c r="C109" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>430</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="G109" s="10" t="s">
         <v>15</v>
       </c>
       <c r="H109" s="2"/>
       <c r="I109" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J109" s="2"/>
       <c r="K109" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B110" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="G110" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="G110" s="8" t="s">
-        <v>438</v>
-      </c>
       <c r="I110" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="J110" s="8"/>
       <c r="K110" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="N110" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="L110" s="1" t="s">
+    </row>
+    <row r="111" spans="1:14" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="N110" s="1" t="s">
+      <c r="C111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B111" s="1" t="s">
+      <c r="E111" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F111" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D111" s="1" t="s">
+      <c r="G111" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="F111" s="1" t="s">
+      <c r="I111" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="G111" s="8" t="s">
+      <c r="C112" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="I111" s="1" t="s">
+      <c r="E112" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="K112" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="K113" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="K114" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="L114" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="K115" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="22.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="I116" s="9" t="s">
         <v>711</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="G112" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="K112" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="L112" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="M112" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="G113" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="K113" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="L113" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="G114" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="K114" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="L114" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="G115" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="K115" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="L115" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" ht="22.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="I116" s="9" t="s">
-        <v>713</v>
       </c>
       <c r="J116" s="9"/>
       <c r="K116" s="8" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="L116" s="8"/>
     </row>
-    <row r="117" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D117" s="1" t="s">
+      <c r="G117" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="I117" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="K117" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="I118" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="K117" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="L117" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D118" s="1" t="s">
+      <c r="K118" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="F118" s="1" t="s">
+      <c r="L118" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="G118" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="K118" s="8" t="s">
+      <c r="M118" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="L118" s="3" t="s">
+    </row>
+    <row r="119" spans="1:14" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="M118" s="1" t="s">
+      <c r="C119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B119" s="1" t="s">
+      <c r="E119" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F119" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D119" s="1" t="s">
+      <c r="G119" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="K119" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="F119" s="1" t="s">
+      <c r="L119" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="G119" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="K119" s="8" t="s">
+      <c r="N119" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="L119" s="1" t="s">
+    </row>
+    <row r="120" spans="1:14" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="N119" s="1" t="s">
+      <c r="C120" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B120" s="1" t="s">
+      <c r="E120" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D120" s="1" t="s">
+      <c r="F120" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="G120" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="K120" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="L120" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="G120" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="K120" s="8" t="s">
+      <c r="M120" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L120" s="1" t="s">
+    </row>
+    <row r="121" spans="1:14" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="M120" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B121" s="1" t="s">
+      <c r="C121" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>499</v>
-      </c>
       <c r="E121" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K121" s="8" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F122" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>505</v>
-      </c>
       <c r="G122" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="J122" s="8"/>
       <c r="K122" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="M122" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="L122" s="1" t="s">
+    </row>
+    <row r="123" spans="1:14" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="M122" s="1" t="s">
+      <c r="C123" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B123" s="1" t="s">
+      <c r="E123" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D123" s="1" t="s">
+      <c r="G123" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="K123" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="F123" s="1" t="s">
+      <c r="L123" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="G123" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="K123" s="8" t="s">
+    </row>
+    <row r="124" spans="1:14" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="L123" s="1" t="s">
+      <c r="C124" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B124" s="1" t="s">
+      <c r="E124" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D124" s="1" t="s">
+      <c r="G124" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I124" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="F124" s="1" t="s">
+      <c r="K124" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="G124" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I124" s="1" t="s">
+      <c r="L124" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="K124" s="8" t="s">
+      <c r="M124" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="L124" s="1" t="s">
+    </row>
+    <row r="125" spans="1:14" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="M124" s="1" t="s">
+      <c r="C125" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B125" s="1" t="s">
+      <c r="E125" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>523</v>
       </c>
       <c r="G125" s="8" t="s">
         <v>3</v>
       </c>
       <c r="I125" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="L125" s="1" t="s">
+      <c r="C126" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B126" s="1" t="s">
+      <c r="E126" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D126" s="1" t="s">
+      <c r="G126" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="F126" s="1" t="s">
+      <c r="I126" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="K126" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="G126" s="8" t="s">
+      <c r="L126" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="I126" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K126" s="8" t="s">
+      <c r="M126" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="L126" s="1" t="s">
+    </row>
+    <row r="127" spans="1:14" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="M126" s="1" t="s">
+      <c r="C127" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B127" s="1" t="s">
+      <c r="E127" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F127" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D127" s="1" t="s">
+      <c r="G127" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="K127" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="F127" s="1" t="s">
+      <c r="L127" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="G127" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K127" s="8" t="s">
+    </row>
+    <row r="128" spans="1:14" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="L127" s="1" t="s">
+      <c r="C128" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B128" s="1" t="s">
+      <c r="E128" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F128" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D128" s="1" t="s">
+      <c r="G128" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="K128" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="F128" s="1" t="s">
+      <c r="M128" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="G128" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K128" s="8" t="s">
+    </row>
+    <row r="129" spans="1:13" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="M128" s="1" t="s">
+      <c r="C129" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B129" s="1" t="s">
+      <c r="E129" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F129" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>545</v>
       </c>
       <c r="G129" s="8" t="s">
         <v>3</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="L129" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B130" s="1" t="s">
+      <c r="E130" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="F130" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D130" s="1" t="s">
+      <c r="G130" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="K130" s="8" t="s">
         <v>548</v>
       </c>
-      <c r="E130" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="F130" s="1" t="s">
+      <c r="L130" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="G130" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="K130" s="8" t="s">
+    </row>
+    <row r="131" spans="1:13" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="L130" s="1" t="s">
+      <c r="C131" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B131" s="1" t="s">
+      <c r="E131" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F131" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D131" s="1" t="s">
+      <c r="G131" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="K131" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="F131" s="1" t="s">
+      <c r="L131" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="G131" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="K131" s="8" t="s">
+      <c r="M131" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="L131" s="3" t="s">
+    </row>
+    <row r="132" spans="1:13" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="M131" s="1" t="s">
+      <c r="C132" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B132" s="1" t="s">
+      <c r="E132" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D132" s="1" t="s">
+      <c r="F132" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="G132" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="K132" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="F132" s="1" t="s">
+      <c r="L132" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="G132" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="K132" s="8" t="s">
+    </row>
+    <row r="133" spans="1:13" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="L132" s="3" t="s">
+      <c r="C133" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D133" s="1" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B133" s="1" t="s">
+      <c r="E133" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F133" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D133" s="1" t="s">
+      <c r="G133" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="K133" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="F133" s="1" t="s">
+      <c r="L133" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="G133" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="K133" s="8" t="s">
+    </row>
+    <row r="134" spans="1:13" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="L133" s="1" t="s">
+      <c r="C134" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B134" s="1" t="s">
+      <c r="E134" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D134" s="1" t="s">
+      <c r="F134" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="G134" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="K134" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="L134" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="G134" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="K134" s="8" t="s">
+      <c r="M134" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="L134" s="1" t="s">
+    </row>
+    <row r="135" spans="1:13" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="M134" s="1" t="s">
+      <c r="C135" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D135" s="1" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B135" s="1" t="s">
+      <c r="E135" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F135" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D135" s="1" t="s">
+      <c r="G135" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="K135" s="8" t="s">
         <v>577</v>
       </c>
-      <c r="E135" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="F135" s="1" t="s">
+      <c r="L135" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G135" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="K135" s="8" t="s">
+    </row>
+    <row r="136" spans="1:13" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="L135" s="1" t="s">
+      <c r="C136" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B136" s="1" t="s">
+      <c r="E136" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="F136" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D136" s="1" t="s">
+      <c r="G136" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="K136" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="E136" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="F136" s="1" t="s">
+      <c r="L136" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="G136" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I136" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="K136" s="8" t="s">
+    </row>
+    <row r="137" spans="1:13" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="L136" s="1" t="s">
+      <c r="C137" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B137" s="1" t="s">
+      <c r="E137" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="F137" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="C137" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D137" s="1" t="s">
+      <c r="G137" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I137" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="E137" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="F137" s="1" t="s">
+      <c r="K137" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="G137" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I137" s="1" t="s">
+      <c r="L137" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="K137" s="8" t="s">
+      <c r="M137" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="L137" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="M137" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="138" spans="1:13" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>146</v>
@@ -7011,77 +7011,77 @@
         <v>15</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="K138" s="8" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B139" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D139" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C139" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D139" s="9" t="s">
-        <v>199</v>
-      </c>
       <c r="E139" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J139" s="9"/>
       <c r="K139" s="8" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="L139" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B140" s="1" t="s">
+      <c r="E140" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F140" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D140" s="1" t="s">
+      <c r="G140" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="K140" s="8" t="s">
         <v>597</v>
       </c>
-      <c r="E140" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="F140" s="1" t="s">
+      <c r="L140" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G140" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I140" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="K140" s="8" t="s">
+      <c r="M140" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="L140" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="M140" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="141" spans="1:13" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>180</v>
@@ -7102,685 +7102,685 @@
         <v>15</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="K141" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="L141" s="1" t="s">
+      <c r="C142" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B142" s="1" t="s">
+      <c r="E142" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="K142" s="8" t="s">
         <v>604</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D142" s="1" t="s">
+    </row>
+    <row r="143" spans="1:13" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="E142" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="G142" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I142" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="K142" s="8" t="s">
+      <c r="C143" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B143" s="1" t="s">
+      <c r="E143" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="F143" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D143" s="1" t="s">
+      <c r="G143" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I143" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="E143" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="F143" s="1" t="s">
+      <c r="K143" s="8" t="s">
         <v>609</v>
       </c>
-      <c r="G143" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I143" s="1" t="s">
+      <c r="L143" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="K143" s="8" t="s">
+      <c r="M143" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="L143" s="1" t="s">
+    </row>
+    <row r="144" spans="1:13" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="M143" s="1" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B144" s="1" t="s">
+      <c r="C144" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="E144" s="2" t="s">
+      <c r="I144" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="K144" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="I144" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="K144" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="L144" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="B145" s="2" t="s">
+      <c r="E145" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="F145" s="2" t="s">
         <v>617</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="G145" s="10" t="s">
         <v>15</v>
       </c>
       <c r="H145" s="2"/>
       <c r="I145" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="J145" s="2"/>
       <c r="L145" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="M145" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="M145" s="2" t="s">
+      <c r="C146" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="B146" s="2" t="s">
+      <c r="E146" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="F146" s="2" t="s">
         <v>623</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>625</v>
       </c>
       <c r="G146" s="10" t="s">
         <v>15</v>
       </c>
       <c r="H146" s="2"/>
       <c r="I146" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="J146" s="2"/>
       <c r="L146" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="B147" s="2" t="s">
+      <c r="E147" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="F147" s="2" t="s">
         <v>627</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>629</v>
       </c>
       <c r="G147" s="10" t="s">
         <v>15</v>
       </c>
       <c r="H147" s="2"/>
       <c r="I147" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="J147" s="2"/>
       <c r="L147" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B148" s="1" t="s">
+      <c r="E148" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="F148" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D148" s="1" t="s">
+      <c r="G148" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I148" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="E148" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="F148" s="1" t="s">
+      <c r="K148" s="8" t="s">
         <v>633</v>
       </c>
-      <c r="G148" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I148" s="1" t="s">
+      <c r="L148" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="K148" s="8" t="s">
+      <c r="M148" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="L148" s="1" t="s">
+    </row>
+    <row r="149" spans="1:13" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="M148" s="1" t="s">
+      <c r="C149" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B149" s="1" t="s">
+      <c r="E149" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F149" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="C149" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D149" s="1" t="s">
+      <c r="G149" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="I149" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="E149" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="F149" s="1" t="s">
+      <c r="K149" s="8" t="s">
         <v>640</v>
       </c>
-      <c r="G149" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="I149" s="1" t="s">
+      <c r="L149" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="K149" s="8" t="s">
+      <c r="M149" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="L149" s="1" t="s">
+    </row>
+    <row r="150" spans="1:13" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="M149" s="1" t="s">
+      <c r="C150" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B150" s="1" t="s">
+      <c r="E150" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="F150" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D150" s="1" t="s">
+      <c r="G150" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="I150" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="G150" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="I150" s="1" t="s">
-        <v>648</v>
       </c>
       <c r="J150" s="8"/>
       <c r="K150" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="L150" s="1" t="s">
+      <c r="C151" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B151" s="1" t="s">
+      <c r="E151" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="F151" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="C151" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D151" s="1" t="s">
+      <c r="G151" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="E151" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="F151" s="1" t="s">
+      <c r="C152" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D152" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="G151" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="I151" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B152" s="1" t="s">
+      <c r="E152" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="C152" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D152" s="1" t="s">
+      <c r="F152" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="I152" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="K152" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="L152" s="3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="G153" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I153" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="F152" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="I152" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="K152" s="8" t="s">
-        <v>659</v>
-      </c>
-      <c r="L152" s="3" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D153" s="1" t="s">
+      <c r="K153" s="8" t="s">
         <v>662</v>
       </c>
-      <c r="E153" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="F153" s="1" t="s">
+      <c r="L153" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="G153" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I153" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="K153" s="8" t="s">
+    </row>
+    <row r="154" spans="1:13" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="L153" s="1" t="s">
+      <c r="C154" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B154" s="1" t="s">
+      <c r="E154" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="F154" s="1" t="s">
         <v>666</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>668</v>
       </c>
       <c r="G154" s="8" t="s">
         <v>115</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="K154" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="L154" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="L154" s="1" t="s">
+      <c r="C155" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D155" s="1" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B155" s="1" t="s">
+      <c r="E155" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F155" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D155" s="1" t="s">
+      <c r="G155" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="K155" s="8" t="s">
         <v>672</v>
       </c>
-      <c r="E155" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="F155" s="1" t="s">
+      <c r="L155" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="G155" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I155" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="K155" s="8" t="s">
+    </row>
+    <row r="156" spans="1:13" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="L155" s="1" t="s">
+      <c r="C156" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B156" s="1" t="s">
+      <c r="E156" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="F156" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="C156" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D156" s="1" t="s">
+      <c r="G156" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="K156" s="8" t="s">
         <v>677</v>
       </c>
-      <c r="E156" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="F156" s="1" t="s">
+      <c r="L156" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="G156" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I156" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="K156" s="8" t="s">
+    </row>
+    <row r="157" spans="1:13" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="L156" s="1" t="s">
+      <c r="C157" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B157" s="1" t="s">
+      <c r="E157" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="F157" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D157" s="1" t="s">
+      <c r="G157" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="K157" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="L157" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="M157" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="E157" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="F157" s="1" t="s">
+    </row>
+    <row r="158" spans="1:13" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="G157" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I157" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="K157" s="8" t="s">
-        <v>669</v>
-      </c>
-      <c r="L157" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="M157" s="1" t="s">
+      <c r="C158" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B158" s="1" t="s">
+      <c r="E158" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="G158" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="K158" s="8" t="s">
         <v>685</v>
       </c>
-      <c r="C158" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D158" s="1" t="s">
+      <c r="L158" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="E158" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="G158" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I158" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="K158" s="8" t="s">
+    </row>
+    <row r="159" spans="1:13" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="L158" s="1" t="s">
+      <c r="C159" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B159" s="1" t="s">
+      <c r="E159" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F159" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D159" s="1" t="s">
+      <c r="G159" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="L159" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="E159" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="F159" s="1" t="s">
+    </row>
+    <row r="160" spans="1:13" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="G159" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I159" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="L159" s="1" t="s">
+      <c r="C160" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B160" s="1" t="s">
+      <c r="E160" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="F160" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D160" s="1" t="s">
+      <c r="G160" s="8" t="s">
         <v>694</v>
       </c>
-      <c r="E160" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="F160" s="1" t="s">
+      <c r="I160" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="L160" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="G160" s="8" t="s">
-        <v>696</v>
-      </c>
-      <c r="I160" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="L160" s="1" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="161" spans="1:9" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="F161" s="1" t="s">
         <v>733</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>735</v>
       </c>
       <c r="G161" s="8" t="s">
         <v>185</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="F162" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="C162" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>738</v>
-      </c>
       <c r="G162" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G163" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>
